--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345111.769330756</v>
+        <v>1344709.880014495</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241946.9810785741</v>
+        <v>241946.9810785732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40.30217959271854</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.0665891492467</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -753,10 +753,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>66.94125340084025</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>194.7863996663021</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>109.7129576363817</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.1400521802532</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>342.6918295015097</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>51.69551337681817</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33.30915441192473</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1023,13 +1023,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>29.36299357133128</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>129.8789034869586</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>194.9877887304074</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>238.9372514346889</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>51.68372541402892</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>109.0305713435654</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>73.75270603218317</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>257.7395212081473</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>280.8016135680807</v>
       </c>
       <c r="C11" t="n">
-        <v>268.8129305257624</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>259.7942345702904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>281.5363721401959</v>
@@ -1385,7 +1385,7 @@
         <v>302.6414561255956</v>
       </c>
       <c r="H11" t="n">
-        <v>220.1915711039055</v>
+        <v>108.6302995590496</v>
       </c>
       <c r="I11" t="n">
         <v>61.78753624853366</v>
@@ -1424,16 +1424,16 @@
         <v>112.8138662515406</v>
       </c>
       <c r="U11" t="n">
-        <v>21.38299453265874</v>
+        <v>143.0349923683876</v>
       </c>
       <c r="V11" t="n">
         <v>224.3079908082598</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>249.6080902862167</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>268.9083485189633</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>77.46138060535908</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>107.9708576608212</v>
       </c>
     </row>
     <row r="13">
@@ -1531,7 +1531,7 @@
         <v>58.61831928817821</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.2396836857566</v>
       </c>
       <c r="E13" t="n">
         <v>41.18743354153605</v>
@@ -1543,10 +1543,10 @@
         <v>57.9290605910702</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>48.47742821376062</v>
       </c>
       <c r="I13" t="n">
-        <v>25.74572146788582</v>
+        <v>33.45952339858997</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>148.8264608424033</v>
       </c>
       <c r="W13" t="n">
-        <v>173.9933469130166</v>
+        <v>75.56243308279437</v>
       </c>
       <c r="X13" t="n">
         <v>119.6384489088197</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.8016135680807</v>
+        <v>280.8016135680806</v>
       </c>
       <c r="C14" t="n">
-        <v>268.8129305257624</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.7942345702903</v>
       </c>
       <c r="E14" t="n">
         <v>281.5363721401959</v>
@@ -1619,13 +1619,13 @@
         <v>300.7081882281731</v>
       </c>
       <c r="G14" t="n">
-        <v>40.87170104814919</v>
+        <v>302.6414561255956</v>
       </c>
       <c r="H14" t="n">
-        <v>220.1915711039055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.78753624853363</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.05519506119128</v>
+        <v>76.05519506119126</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>112.8138662515406</v>
       </c>
       <c r="U14" t="n">
-        <v>143.0349923683876</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>249.6080902862167</v>
+        <v>185.4821921364612</v>
       </c>
       <c r="X14" t="n">
         <v>268.9083485189633</v>
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>16.31322345267319</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1740,7 +1740,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>133.6845890515773</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.41832444277773</v>
+        <v>72.4183244427777</v>
       </c>
       <c r="C16" t="n">
-        <v>58.61831928817821</v>
+        <v>58.61831928817818</v>
       </c>
       <c r="D16" t="n">
-        <v>42.2396836857566</v>
+        <v>42.23968368575657</v>
       </c>
       <c r="E16" t="n">
-        <v>41.18743354153605</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>41.65435786972236</v>
+        <v>41.65435786972233</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.6855803023853831</v>
       </c>
       <c r="H16" t="n">
-        <v>48.47742821376062</v>
+        <v>48.47742821376059</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45952339858997</v>
+        <v>33.45952339858994</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.72507301700728</v>
+        <v>38.72507301700725</v>
       </c>
       <c r="S16" t="n">
         <v>102.271174415591</v>
       </c>
       <c r="T16" t="n">
-        <v>81.04381985856882</v>
+        <v>121.5456730977196</v>
       </c>
       <c r="U16" t="n">
         <v>175.0168465610328</v>
@@ -1844,7 +1844,7 @@
         <v>219.4367213710092</v>
       </c>
       <c r="C17" t="n">
-        <v>207.4480383286918</v>
+        <v>207.4480383286909</v>
       </c>
       <c r="D17" t="n">
         <v>198.4293423732189</v>
@@ -1935,10 +1935,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>44.8159595508525</v>
       </c>
       <c r="H18" t="n">
-        <v>16.31322345267319</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -2084,7 +2084,7 @@
         <v>207.4480383286909</v>
       </c>
       <c r="D20" t="n">
-        <v>198.4293423732193</v>
+        <v>198.4293423732189</v>
       </c>
       <c r="E20" t="n">
         <v>220.1714799431244</v>
@@ -2099,7 +2099,7 @@
         <v>158.826678906834</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4226440514621856</v>
+        <v>0.4226440514630951</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>44.8159595508525</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -2217,7 +2217,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4864109000538</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>68.64623669129179</v>
+        <v>127.8326629072957</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2558,7 +2558,7 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>157.6742392969932</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149372</v>
+        <v>59.00625394119628</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
         <v>245.4794153327662</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>143.2597570679445</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761973</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355683</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2798,7 +2798,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>224.0167345776028</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2807,10 +2807,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>216.062896150455</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508317</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.9265201077408</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149372</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V29" t="n">
-        <v>179.4163768668996</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
         <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617115</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2925,7 +2925,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921692</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.28964948932725</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472773</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230612</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808557</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627188</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761971</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031013</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513948</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355679</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214053</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
       </c>
       <c r="U31" t="n">
-        <v>170.8881716075824</v>
+        <v>170.8881716075823</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6977858889529</v>
+        <v>144.6977858889528</v>
       </c>
       <c r="W31" t="n">
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3029,25 +3029,25 @@
         <v>248.7898580267162</v>
       </c>
       <c r="C32" t="n">
-        <v>236.8011749843979</v>
+        <v>236.801174984398</v>
       </c>
       <c r="D32" t="n">
         <v>227.7824790289259</v>
       </c>
       <c r="E32" t="n">
-        <v>249.5246165988314</v>
+        <v>249.5246165988315</v>
       </c>
       <c r="F32" t="n">
         <v>268.6964326868086</v>
       </c>
       <c r="G32" t="n">
-        <v>270.6297005842311</v>
+        <v>270.6297005842312</v>
       </c>
       <c r="H32" t="n">
-        <v>188.179815562541</v>
+        <v>188.1798155625411</v>
       </c>
       <c r="I32" t="n">
-        <v>29.77578070716916</v>
+        <v>29.77578070716922</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.04343951982679</v>
+        <v>44.04343951982685</v>
       </c>
       <c r="T32" t="n">
-        <v>80.80211071017615</v>
+        <v>80.80211071017621</v>
       </c>
       <c r="U32" t="n">
-        <v>111.0232368270231</v>
+        <v>111.0232368270232</v>
       </c>
       <c r="V32" t="n">
         <v>192.2962352668953</v>
@@ -3092,7 +3092,7 @@
         <v>217.5963347448522</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8965929775988</v>
+        <v>236.8965929775989</v>
       </c>
       <c r="Y32" t="n">
         <v>248.2931907737976</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133622</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.40656890141324</v>
+        <v>40.40656890141329</v>
       </c>
       <c r="C34" t="n">
-        <v>26.60656374681372</v>
+        <v>26.60656374681378</v>
       </c>
       <c r="D34" t="n">
-        <v>10.22792814439211</v>
+        <v>10.22792814439217</v>
       </c>
       <c r="E34" t="n">
-        <v>9.175678000171558</v>
+        <v>9.175678000171615</v>
       </c>
       <c r="F34" t="n">
-        <v>9.642602328357867</v>
+        <v>9.642602328357924</v>
       </c>
       <c r="G34" t="n">
-        <v>25.9173050497057</v>
+        <v>25.91730504970576</v>
       </c>
       <c r="H34" t="n">
-        <v>16.46567267239612</v>
+        <v>16.46567267239618</v>
       </c>
       <c r="I34" t="n">
-        <v>1.447767857225472</v>
+        <v>1.447767857225529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.713317475642782</v>
+        <v>6.713317475642839</v>
       </c>
       <c r="S34" t="n">
-        <v>70.25941887422653</v>
+        <v>70.25941887422658</v>
       </c>
       <c r="T34" t="n">
-        <v>89.53391755635516</v>
+        <v>89.53391755635522</v>
       </c>
       <c r="U34" t="n">
-        <v>143.0050910196683</v>
+        <v>143.0050910196684</v>
       </c>
       <c r="V34" t="n">
-        <v>116.8147053010388</v>
+        <v>116.8147053010389</v>
       </c>
       <c r="W34" t="n">
         <v>141.9815913716521</v>
       </c>
       <c r="X34" t="n">
-        <v>87.6266933674552</v>
+        <v>87.62669336745526</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.50156112352289</v>
+        <v>78.50156112352295</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3831,7 +3831,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3885,7 +3885,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205623</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>181.3723269554795</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.8449090614163</v>
+        <v>1338.165977182973</v>
       </c>
       <c r="C2" t="n">
-        <v>102.8449090614163</v>
+        <v>956.2322185157802</v>
       </c>
       <c r="D2" t="n">
-        <v>102.8449090614163</v>
+        <v>956.2322185157802</v>
       </c>
       <c r="E2" t="n">
-        <v>62.13563674553902</v>
+        <v>956.2322185157802</v>
       </c>
       <c r="F2" t="n">
-        <v>52.0248500961134</v>
+        <v>542.0810278259505</v>
       </c>
       <c r="G2" t="n">
-        <v>39.96126759070543</v>
+        <v>530.0174453205425</v>
       </c>
       <c r="H2" t="n">
-        <v>39.96126759070543</v>
+        <v>212.7784663819094</v>
       </c>
       <c r="I2" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J2" t="n">
-        <v>111.9598118635111</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="K2" t="n">
-        <v>352.1001839082938</v>
+        <v>251.0137468940983</v>
       </c>
       <c r="L2" t="n">
-        <v>699.9855569932402</v>
+        <v>598.8991199790446</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.224723246328</v>
+        <v>992.1382862321325</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.556081934044</v>
+        <v>1370.469644919848</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.560666406878</v>
+        <v>1675.474229392682</v>
       </c>
       <c r="P2" t="n">
-        <v>1998.063379535271</v>
+        <v>1903.631125848735</v>
       </c>
       <c r="Q2" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R2" t="n">
-        <v>1907.425093031125</v>
+        <v>1907.425093031126</v>
       </c>
       <c r="S2" t="n">
-        <v>1720.196117661479</v>
+        <v>1720.19611766148</v>
       </c>
       <c r="T2" t="n">
-        <v>1495.83717139249</v>
+        <v>1720.19611766148</v>
       </c>
       <c r="U2" t="n">
-        <v>1240.951835106484</v>
+        <v>1720.19611766148</v>
       </c>
       <c r="V2" t="n">
-        <v>1240.951835106484</v>
+        <v>1720.19611766148</v>
       </c>
       <c r="W2" t="n">
-        <v>878.416904964085</v>
+        <v>1720.19611766148</v>
       </c>
       <c r="X2" t="n">
-        <v>496.3867644855783</v>
+        <v>1338.165977182973</v>
       </c>
       <c r="Y2" t="n">
-        <v>102.8449090614163</v>
+        <v>1338.165977182973</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.9255883739352</v>
+        <v>850.8917427828104</v>
       </c>
       <c r="C3" t="n">
-        <v>578.2219156148899</v>
+        <v>689.1880700237651</v>
       </c>
       <c r="D3" t="n">
-        <v>439.383278605102</v>
+        <v>550.3494330139772</v>
       </c>
       <c r="E3" t="n">
-        <v>439.383278605102</v>
+        <v>403.3214230708485</v>
       </c>
       <c r="F3" t="n">
-        <v>304.6894805549763</v>
+        <v>268.6276250207228</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9609805782609</v>
+        <v>139.8991250440074</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3435529006444</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="I3" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J3" t="n">
         <v>100.2154141238116</v>
@@ -4416,43 +4416,43 @@
         <v>695.527811854116</v>
       </c>
       <c r="M3" t="n">
-        <v>1111.342742316141</v>
+        <v>1180.561165364342</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.863428751121</v>
+        <v>1303.767509475424</v>
       </c>
       <c r="O3" t="n">
-        <v>1998.063379535271</v>
+        <v>1695.967460259575</v>
       </c>
       <c r="P3" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="Q3" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R3" t="n">
-        <v>1938.279110630217</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="S3" t="n">
-        <v>1938.279110630217</v>
+        <v>1845.263892548013</v>
       </c>
       <c r="T3" t="n">
-        <v>1749.594006796202</v>
+        <v>1656.578788713998</v>
       </c>
       <c r="U3" t="n">
-        <v>1531.099214394513</v>
+        <v>1438.083996312308</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.099214394513</v>
+        <v>1438.083996312308</v>
       </c>
       <c r="W3" t="n">
-        <v>1289.783345627823</v>
+        <v>1241.330057255437</v>
       </c>
       <c r="X3" t="n">
-        <v>1091.866357505617</v>
+        <v>1043.413069133232</v>
       </c>
       <c r="Y3" t="n">
-        <v>899.3450311551961</v>
+        <v>850.8917427828104</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="C4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="D4" t="n">
-        <v>513.3706854357595</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="E4" t="n">
-        <v>361.3616711970783</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="F4" t="n">
-        <v>208.8810162228554</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="G4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="H4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="I4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="K4" t="n">
-        <v>73.56545533534884</v>
+        <v>73.56545533534886</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1725347356083</v>
+        <v>174.1725347356084</v>
       </c>
       <c r="M4" t="n">
         <v>292.1660408632101</v>
@@ -4507,31 +4507,31 @@
         <v>572.0205128366379</v>
       </c>
       <c r="Q4" t="n">
-        <v>572.0205128366379</v>
+        <v>533.4831714903269</v>
       </c>
       <c r="R4" t="n">
-        <v>572.0205128366379</v>
+        <v>383.9613901047051</v>
       </c>
       <c r="S4" t="n">
-        <v>572.0205128366379</v>
+        <v>383.9613901047051</v>
       </c>
       <c r="T4" t="n">
-        <v>572.0205128366379</v>
+        <v>150.7824369203839</v>
       </c>
       <c r="U4" t="n">
-        <v>572.0205128366379</v>
+        <v>150.7824369203839</v>
       </c>
       <c r="V4" t="n">
-        <v>572.0205128366379</v>
+        <v>150.7824369203839</v>
       </c>
       <c r="W4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="X4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070545</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.788676687435</v>
+        <v>570.9954120201555</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.854918020242</v>
+        <v>570.9954120201555</v>
       </c>
       <c r="D5" t="n">
-        <v>1375.854918020242</v>
+        <v>570.9954120201555</v>
       </c>
       <c r="E5" t="n">
-        <v>1375.854918020242</v>
+        <v>570.9954120201555</v>
       </c>
       <c r="F5" t="n">
-        <v>961.7037273304122</v>
+        <v>224.8420488873174</v>
       </c>
       <c r="G5" t="n">
-        <v>545.5997407846002</v>
+        <v>212.7784663819094</v>
       </c>
       <c r="H5" t="n">
         <v>212.7784663819094</v>
       </c>
       <c r="I5" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J5" t="n">
         <v>111.9598118635111</v>
       </c>
       <c r="K5" t="n">
-        <v>352.1001839082938</v>
+        <v>251.0137468940983</v>
       </c>
       <c r="L5" t="n">
-        <v>699.9855569932402</v>
+        <v>598.8991199790446</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.224723246328</v>
+        <v>992.1382862321325</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.556081934044</v>
+        <v>1370.469644919848</v>
       </c>
       <c r="O5" t="n">
-        <v>1769.906483079218</v>
+        <v>1675.474229392682</v>
       </c>
       <c r="P5" t="n">
-        <v>1998.063379535271</v>
+        <v>1903.631125848735</v>
       </c>
       <c r="Q5" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R5" t="n">
-        <v>1907.425093031125</v>
+        <v>1907.425093031126</v>
       </c>
       <c r="S5" t="n">
-        <v>1907.425093031125</v>
+        <v>1907.425093031126</v>
       </c>
       <c r="T5" t="n">
-        <v>1907.425093031125</v>
+        <v>1907.425093031126</v>
       </c>
       <c r="U5" t="n">
-        <v>1907.425093031125</v>
+        <v>1652.53975674512</v>
       </c>
       <c r="V5" t="n">
-        <v>1907.425093031125</v>
+        <v>1315.560482641061</v>
       </c>
       <c r="W5" t="n">
-        <v>1907.425093031125</v>
+        <v>953.0255524986621</v>
       </c>
       <c r="X5" t="n">
-        <v>1907.425093031125</v>
+        <v>570.9954120201555</v>
       </c>
       <c r="Y5" t="n">
-        <v>1907.425093031125</v>
+        <v>570.9954120201555</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577.225271236699</v>
+        <v>618.7317183239163</v>
       </c>
       <c r="C6" t="n">
-        <v>415.5215984776537</v>
+        <v>618.7317183239163</v>
       </c>
       <c r="D6" t="n">
-        <v>276.6829614678658</v>
+        <v>618.7317183239163</v>
       </c>
       <c r="E6" t="n">
-        <v>243.0373509507701</v>
+        <v>471.7037083807875</v>
       </c>
       <c r="F6" t="n">
-        <v>108.3435529006444</v>
+        <v>337.0099103306618</v>
       </c>
       <c r="G6" t="n">
-        <v>108.3435529006444</v>
+        <v>208.2814103539464</v>
       </c>
       <c r="H6" t="n">
-        <v>108.3435529006444</v>
+        <v>108.3435529006445</v>
       </c>
       <c r="I6" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J6" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="K6" t="n">
-        <v>39.96126759070543</v>
+        <v>269.4518201508941</v>
       </c>
       <c r="L6" t="n">
-        <v>405.783112760821</v>
+        <v>269.4518201508941</v>
       </c>
       <c r="M6" t="n">
-        <v>809.2468230404437</v>
+        <v>651.4751932548501</v>
       </c>
       <c r="N6" t="n">
-        <v>1303.767509475423</v>
+        <v>1145.99587968983</v>
       </c>
       <c r="O6" t="n">
-        <v>1695.967460259574</v>
+        <v>1538.195830473981</v>
       </c>
       <c r="P6" t="n">
-        <v>1998.063379535271</v>
+        <v>1840.291749749678</v>
       </c>
       <c r="Q6" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R6" t="n">
-        <v>1938.279110630217</v>
+        <v>1938.279110630218</v>
       </c>
       <c r="S6" t="n">
-        <v>1785.479623642957</v>
+        <v>1938.279110630218</v>
       </c>
       <c r="T6" t="n">
-        <v>1596.794519808943</v>
+        <v>1749.594006796203</v>
       </c>
       <c r="U6" t="n">
-        <v>1596.794519808943</v>
+        <v>1531.099214394513</v>
       </c>
       <c r="V6" t="n">
-        <v>1368.398897257277</v>
+        <v>1302.703591842847</v>
       </c>
       <c r="W6" t="n">
-        <v>1127.083028490586</v>
+        <v>1061.387723076157</v>
       </c>
       <c r="X6" t="n">
-        <v>929.166040368381</v>
+        <v>863.4707349539518</v>
       </c>
       <c r="Y6" t="n">
-        <v>736.6447140179598</v>
+        <v>670.9494086035306</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4831714903269</v>
+        <v>209.5772371290251</v>
       </c>
       <c r="C7" t="n">
-        <v>533.4831714903269</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="D7" t="n">
-        <v>503.8235820243357</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="E7" t="n">
-        <v>351.8145677856545</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="F7" t="n">
-        <v>199.3339128114316</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="G7" t="n">
-        <v>199.3339128114316</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="H7" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="I7" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J7" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="K7" t="n">
-        <v>73.56545533534884</v>
+        <v>73.56545533534886</v>
       </c>
       <c r="L7" t="n">
-        <v>174.1725347356083</v>
+        <v>174.1725347356084</v>
       </c>
       <c r="M7" t="n">
         <v>292.1660408632101</v>
@@ -4744,31 +4744,31 @@
         <v>572.0205128366379</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.4831714903269</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="R7" t="n">
-        <v>533.4831714903269</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="S7" t="n">
-        <v>533.4831714903269</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="T7" t="n">
-        <v>533.4831714903269</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="U7" t="n">
-        <v>533.4831714903269</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="V7" t="n">
-        <v>533.4831714903269</v>
+        <v>440.8297012336494</v>
       </c>
       <c r="W7" t="n">
-        <v>533.4831714903269</v>
+        <v>440.8297012336494</v>
       </c>
       <c r="X7" t="n">
-        <v>533.4831714903269</v>
+        <v>209.5772371290251</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.4831714903269</v>
+        <v>209.5772371290251</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.0452009605541</v>
+        <v>1452.283929255936</v>
       </c>
       <c r="C8" t="n">
-        <v>251.0452009605541</v>
+        <v>1070.350170588744</v>
       </c>
       <c r="D8" t="n">
-        <v>251.0452009605541</v>
+        <v>697.5262058159672</v>
       </c>
       <c r="E8" t="n">
-        <v>251.0452009605541</v>
+        <v>697.5262058159672</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>283.3750151261375</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W8" t="n">
-        <v>644.5870563847161</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="X8" t="n">
-        <v>644.5870563847161</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.0452009605541</v>
+        <v>1846.327468773955</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>821.3991591499413</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C9" t="n">
-        <v>659.695486390896</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D9" t="n">
-        <v>520.8568493811081</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E9" t="n">
-        <v>373.8288394379794</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F9" t="n">
-        <v>239.1350413878537</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L9" t="n">
-        <v>331.768955194494</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2049.007021813467</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1896.207534826208</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="T9" t="n">
-        <v>1707.522430992193</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="U9" t="n">
-        <v>1489.027638590503</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V9" t="n">
-        <v>1260.632016038837</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W9" t="n">
-        <v>1019.316147272147</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X9" t="n">
-        <v>821.3991591499413</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y9" t="n">
-        <v>821.3991591499413</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>499.5858184863406</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>302.3672068164996</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>302.3672068164996</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1762.295941194487</v>
+        <v>1115.661156708721</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.767728542201</v>
+        <v>1115.661156708721</v>
       </c>
       <c r="D11" t="n">
-        <v>1228.349309784332</v>
+        <v>1115.661156708721</v>
       </c>
       <c r="E11" t="n">
-        <v>943.9691359053468</v>
+        <v>831.2809828297352</v>
       </c>
       <c r="F11" t="n">
-        <v>640.2234912304244</v>
+        <v>527.5353381548127</v>
       </c>
       <c r="G11" t="n">
-        <v>334.5250506995198</v>
+        <v>221.836897623908</v>
       </c>
       <c r="H11" t="n">
         <v>112.1093223117365</v>
@@ -5042,25 +5042,25 @@
         <v>229.9046894574562</v>
       </c>
       <c r="K11" t="n">
-        <v>578.2535371514497</v>
+        <v>502.0430017859002</v>
       </c>
       <c r="L11" t="n">
-        <v>926.138910236396</v>
+        <v>849.9283748708465</v>
       </c>
       <c r="M11" t="n">
-        <v>1370.749907819642</v>
+        <v>1243.167541123934</v>
       </c>
       <c r="N11" t="n">
-        <v>1857.289742156569</v>
+        <v>1729.707375460861</v>
       </c>
       <c r="O11" t="n">
-        <v>2162.294326629402</v>
+        <v>2034.711959933695</v>
       </c>
       <c r="P11" t="n">
-        <v>2390.451223085456</v>
+        <v>2262.868856389748</v>
       </c>
       <c r="Q11" t="n">
-        <v>2484.883476771993</v>
+        <v>2465.509585725496</v>
       </c>
       <c r="R11" t="n">
         <v>2484.883476771993</v>
@@ -5072,19 +5072,19 @@
         <v>2294.106647163173</v>
       </c>
       <c r="U11" t="n">
-        <v>2272.50766278675</v>
+        <v>2149.626856892075</v>
       </c>
       <c r="V11" t="n">
-        <v>2045.933934697598</v>
+        <v>1923.053128802924</v>
       </c>
       <c r="W11" t="n">
-        <v>2045.933934697598</v>
+        <v>1670.923744675432</v>
       </c>
       <c r="X11" t="n">
-        <v>2045.933934697598</v>
+        <v>1399.299150211833</v>
       </c>
       <c r="Y11" t="n">
-        <v>2045.933934697598</v>
+        <v>1399.299150211833</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>845.5505760717306</v>
+        <v>929.0104300374838</v>
       </c>
       <c r="C12" t="n">
         <v>767.3067572784386</v>
@@ -5118,25 +5118,25 @@
         <v>49.69766953543986</v>
       </c>
       <c r="J12" t="n">
-        <v>49.69766953543986</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K12" t="n">
-        <v>279.1882220956285</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L12" t="n">
-        <v>645.0100672657442</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M12" t="n">
-        <v>1130.043420775971</v>
+        <v>1121.550330803429</v>
       </c>
       <c r="N12" t="n">
-        <v>1641.309066899093</v>
+        <v>1632.815976926551</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.509017683243</v>
+        <v>2025.015927710701</v>
       </c>
       <c r="P12" t="n">
-        <v>2335.604936958941</v>
+        <v>2327.111846986399</v>
       </c>
       <c r="Q12" t="n">
         <v>2484.883476771993</v>
@@ -5163,7 +5163,7 @@
         <v>1197.491345203413</v>
       </c>
       <c r="Y12" t="n">
-        <v>1004.970018852992</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>277.1066521196746</v>
+        <v>376.5318176047471</v>
       </c>
       <c r="C13" t="n">
-        <v>217.8962285962621</v>
+        <v>317.3213940813347</v>
       </c>
       <c r="D13" t="n">
-        <v>217.8962285962621</v>
+        <v>274.6550469240048</v>
       </c>
       <c r="E13" t="n">
-        <v>176.2927603724883</v>
+        <v>233.0515787002309</v>
       </c>
       <c r="F13" t="n">
-        <v>134.2176514131731</v>
+        <v>190.9764697409154</v>
       </c>
       <c r="G13" t="n">
-        <v>75.70344879593058</v>
+        <v>132.4622671236728</v>
       </c>
       <c r="H13" t="n">
-        <v>75.70344879593058</v>
+        <v>83.49516791785398</v>
       </c>
       <c r="I13" t="n">
         <v>49.69766953543986</v>
@@ -5203,16 +5203,16 @@
         <v>240.8567090405353</v>
       </c>
       <c r="L13" t="n">
-        <v>449.6722640900054</v>
+        <v>449.6722640900056</v>
       </c>
       <c r="M13" t="n">
-        <v>675.8742458668178</v>
+        <v>675.874245866818</v>
       </c>
       <c r="N13" t="n">
-        <v>902.5050632656287</v>
+        <v>902.505063265629</v>
       </c>
       <c r="O13" t="n">
-        <v>1109.177185410529</v>
+        <v>1109.17718541053</v>
       </c>
       <c r="P13" t="n">
         <v>1280.354144787878</v>
@@ -5224,25 +5224,25 @@
         <v>1311.675936812855</v>
       </c>
       <c r="S13" t="n">
-        <v>1208.371720231449</v>
+        <v>1208.37172023145</v>
       </c>
       <c r="T13" t="n">
         <v>1085.598313062036</v>
       </c>
       <c r="U13" t="n">
-        <v>908.8136195660429</v>
+        <v>908.8136195660433</v>
       </c>
       <c r="V13" t="n">
-        <v>758.4838611393728</v>
+        <v>758.4838611393732</v>
       </c>
       <c r="W13" t="n">
-        <v>582.7330056716794</v>
+        <v>682.1581711567519</v>
       </c>
       <c r="X13" t="n">
-        <v>461.8860875819625</v>
+        <v>561.3112530670351</v>
       </c>
       <c r="Y13" t="n">
-        <v>350.2564747891471</v>
+        <v>449.6816402742195</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1173.051975642698</v>
+        <v>1268.352000154418</v>
       </c>
       <c r="C14" t="n">
-        <v>901.5237629904132</v>
+        <v>1268.352000154418</v>
       </c>
       <c r="D14" t="n">
-        <v>901.5237629904132</v>
+        <v>1005.933581396549</v>
       </c>
       <c r="E14" t="n">
-        <v>617.1435891114274</v>
+        <v>721.5534075175633</v>
       </c>
       <c r="F14" t="n">
-        <v>313.3979444365052</v>
+        <v>417.8077628426411</v>
       </c>
       <c r="G14" t="n">
-        <v>272.1133979232232</v>
+        <v>112.1093223117365</v>
       </c>
       <c r="H14" t="n">
-        <v>49.69766953543986</v>
+        <v>112.1093223117365</v>
       </c>
       <c r="I14" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6962138082455</v>
+        <v>229.9046894574562</v>
       </c>
       <c r="K14" t="n">
-        <v>470.0450615022389</v>
+        <v>502.0430017859003</v>
       </c>
       <c r="L14" t="n">
-        <v>869.3022659173433</v>
+        <v>849.9283748708466</v>
       </c>
       <c r="M14" t="n">
-        <v>1370.749907819642</v>
+        <v>1351.376016773145</v>
       </c>
       <c r="N14" t="n">
-        <v>1857.289742156569</v>
+        <v>1837.915851110072</v>
       </c>
       <c r="O14" t="n">
-        <v>2162.294326629402</v>
+        <v>2142.920435582906</v>
       </c>
       <c r="P14" t="n">
-        <v>2390.451223085456</v>
+        <v>2371.077332038959</v>
       </c>
       <c r="Q14" t="n">
-        <v>2484.883476771993</v>
+        <v>2465.509585725496</v>
       </c>
       <c r="R14" t="n">
         <v>2484.883476771993</v>
@@ -5306,22 +5306,22 @@
         <v>2408.060047417254</v>
       </c>
       <c r="T14" t="n">
-        <v>2408.060047417254</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="U14" t="n">
-        <v>2263.580257146156</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="V14" t="n">
-        <v>2263.580257146156</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="W14" t="n">
-        <v>2011.450873018664</v>
+        <v>2106.750897530384</v>
       </c>
       <c r="X14" t="n">
-        <v>1739.826278555065</v>
+        <v>1835.126303066784</v>
       </c>
       <c r="Y14" t="n">
-        <v>1456.68996914581</v>
+        <v>1551.98999365753</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>929.0104300374838</v>
+        <v>845.5505760717306</v>
       </c>
       <c r="C15" t="n">
-        <v>767.3067572784386</v>
+        <v>683.8469033126853</v>
       </c>
       <c r="D15" t="n">
-        <v>628.4681202686506</v>
+        <v>545.0082663028974</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4401103255219</v>
+        <v>397.9802563597686</v>
       </c>
       <c r="F15" t="n">
-        <v>346.7463122753962</v>
+        <v>263.286458309643</v>
       </c>
       <c r="G15" t="n">
-        <v>218.0178122986808</v>
+        <v>134.5579583329275</v>
       </c>
       <c r="H15" t="n">
         <v>118.0799548453789</v>
@@ -5355,25 +5355,25 @@
         <v>49.69766953543986</v>
       </c>
       <c r="J15" t="n">
-        <v>49.69766953543986</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K15" t="n">
-        <v>279.1882220956285</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L15" t="n">
-        <v>645.0100672657442</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M15" t="n">
-        <v>1130.043420775971</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N15" t="n">
-        <v>1641.309066899093</v>
+        <v>1701.563213432199</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.509017683243</v>
+        <v>2025.015927710701</v>
       </c>
       <c r="P15" t="n">
-        <v>2335.604936958941</v>
+        <v>2327.111846986399</v>
       </c>
       <c r="Q15" t="n">
         <v>2484.883476771993</v>
@@ -5388,19 +5388,19 @@
         <v>2083.614617045664</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.579678609727</v>
+        <v>1865.119824643974</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.184056058061</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.868187291371</v>
+        <v>1395.408333325618</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.951199169166</v>
+        <v>1197.491345203413</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.429872818745</v>
+        <v>1004.970018852992</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>318.0176149875044</v>
+        <v>277.1066521196755</v>
       </c>
       <c r="C16" t="n">
-        <v>258.8071914640921</v>
+        <v>217.8962285962632</v>
       </c>
       <c r="D16" t="n">
-        <v>216.1408443067622</v>
+        <v>175.2298814389333</v>
       </c>
       <c r="E16" t="n">
-        <v>174.5373760829884</v>
+        <v>175.2298814389333</v>
       </c>
       <c r="F16" t="n">
-        <v>132.4622671236728</v>
+        <v>133.1547724796179</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4622671236728</v>
+        <v>132.4622671236727</v>
       </c>
       <c r="H16" t="n">
-        <v>83.49516791785396</v>
+        <v>83.49516791785395</v>
       </c>
       <c r="I16" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J16" t="n">
-        <v>99.04404564668124</v>
+        <v>99.04404564668127</v>
       </c>
       <c r="K16" t="n">
-        <v>240.8567090405353</v>
+        <v>240.8567090405356</v>
       </c>
       <c r="L16" t="n">
-        <v>449.6722640900056</v>
+        <v>449.6722640900059</v>
       </c>
       <c r="M16" t="n">
-        <v>675.874245866818</v>
+        <v>675.8742458668182</v>
       </c>
       <c r="N16" t="n">
-        <v>902.5050632656291</v>
+        <v>902.5050632656294</v>
       </c>
       <c r="O16" t="n">
         <v>1109.17718541053</v>
@@ -5458,28 +5458,28 @@
         <v>1350.792172183569</v>
       </c>
       <c r="R16" t="n">
-        <v>1311.675936812856</v>
+        <v>1311.675936812855</v>
       </c>
       <c r="S16" t="n">
         <v>1208.37172023145</v>
       </c>
       <c r="T16" t="n">
-        <v>1126.509275929866</v>
+        <v>1085.598313062037</v>
       </c>
       <c r="U16" t="n">
-        <v>949.7245824338729</v>
+        <v>908.8136195660438</v>
       </c>
       <c r="V16" t="n">
-        <v>799.3948240072029</v>
+        <v>758.4838611393737</v>
       </c>
       <c r="W16" t="n">
-        <v>623.6439685395094</v>
+        <v>582.7330056716803</v>
       </c>
       <c r="X16" t="n">
-        <v>502.7970504497924</v>
+        <v>461.8860875819635</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.1674376569769</v>
+        <v>350.2564747891479</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1328.402764043478</v>
+        <v>1328.402764043477</v>
       </c>
       <c r="C17" t="n">
         <v>1118.859290984193</v>
       </c>
       <c r="D17" t="n">
-        <v>918.4256118193251</v>
+        <v>918.4256118193257</v>
       </c>
       <c r="E17" t="n">
-        <v>696.0301775333409</v>
+        <v>696.0301775333414</v>
       </c>
       <c r="F17" t="n">
-        <v>454.26927245142</v>
+        <v>454.2692724514206</v>
       </c>
       <c r="G17" t="n">
-        <v>210.5555715135168</v>
+        <v>210.5555715135174</v>
       </c>
       <c r="H17" t="n">
         <v>50.12458271873499</v>
@@ -5513,28 +5513,28 @@
         <v>49.69766953543986</v>
       </c>
       <c r="J17" t="n">
-        <v>159.7740342374131</v>
+        <v>121.6962138082455</v>
       </c>
       <c r="K17" t="n">
-        <v>399.9144062821959</v>
+        <v>361.8365858530283</v>
       </c>
       <c r="L17" t="n">
-        <v>747.7997793671422</v>
+        <v>709.7219589379745</v>
       </c>
       <c r="M17" t="n">
-        <v>1309.998664544541</v>
+        <v>1102.961125191062</v>
       </c>
       <c r="N17" t="n">
-        <v>1688.330023232257</v>
+        <v>1481.292483878778</v>
       </c>
       <c r="O17" t="n">
-        <v>1993.334607705091</v>
+        <v>1913.209473383494</v>
       </c>
       <c r="P17" t="n">
-        <v>2390.451223085456</v>
+        <v>2310.326088763858</v>
       </c>
       <c r="Q17" t="n">
-        <v>2484.883476771993</v>
+        <v>2404.758342450396</v>
       </c>
       <c r="R17" t="n">
         <v>2484.883476771993</v>
@@ -5583,7 +5583,7 @@
         <v>263.286458309643</v>
       </c>
       <c r="G18" t="n">
-        <v>134.5579583329275</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H18" t="n">
         <v>118.0799548453789</v>
@@ -5595,22 +5595,22 @@
         <v>109.951816068546</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4423686287347</v>
+        <v>270.6951321230865</v>
       </c>
       <c r="L18" t="n">
-        <v>705.2642137988503</v>
+        <v>636.5169772932021</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.297567309077</v>
+        <v>1121.550330803429</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.563213432199</v>
+        <v>1632.815976926551</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.76316421635</v>
+        <v>2025.015927710701</v>
       </c>
       <c r="P18" t="n">
-        <v>2395.859083492047</v>
+        <v>2327.111846986399</v>
       </c>
       <c r="Q18" t="n">
         <v>2484.883476771993</v>
@@ -5650,13 +5650,13 @@
         <v>49.69766953543986</v>
       </c>
       <c r="C19" t="n">
-        <v>52.41677671524418</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="D19" t="n">
-        <v>52.41677671524418</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="E19" t="n">
-        <v>52.41677671524418</v>
+        <v>56.32979223867564</v>
       </c>
       <c r="F19" t="n">
         <v>56.32979223867564</v>
@@ -5732,43 +5732,43 @@
         <v>1118.859290984194</v>
       </c>
       <c r="D20" t="n">
-        <v>918.4256118193251</v>
+        <v>918.425611819326</v>
       </c>
       <c r="E20" t="n">
-        <v>696.0301775333409</v>
+        <v>696.0301775333418</v>
       </c>
       <c r="F20" t="n">
-        <v>454.26927245142</v>
+        <v>454.269272451421</v>
       </c>
       <c r="G20" t="n">
-        <v>210.5555715135168</v>
+        <v>210.5555715135178</v>
       </c>
       <c r="H20" t="n">
-        <v>50.12458271873499</v>
+        <v>50.12458271873592</v>
       </c>
       <c r="I20" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6962138082455</v>
+        <v>248.6086188401274</v>
       </c>
       <c r="K20" t="n">
-        <v>361.8365858530283</v>
+        <v>488.7489908849101</v>
       </c>
       <c r="L20" t="n">
-        <v>709.7219589379745</v>
+        <v>836.6343639698564</v>
       </c>
       <c r="M20" t="n">
-        <v>1102.961125191062</v>
+        <v>1229.873530222944</v>
       </c>
       <c r="N20" t="n">
-        <v>1650.252202803089</v>
+        <v>1608.20488891066</v>
       </c>
       <c r="O20" t="n">
-        <v>2082.169192307805</v>
+        <v>1913.209473383494</v>
       </c>
       <c r="P20" t="n">
-        <v>2310.326088763858</v>
+        <v>2141.366369839547</v>
       </c>
       <c r="Q20" t="n">
         <v>2404.758342450396</v>
@@ -5777,13 +5777,13 @@
         <v>2484.883476771993</v>
       </c>
       <c r="S20" t="n">
-        <v>2470.044787010255</v>
+        <v>2470.044787010256</v>
       </c>
       <c r="T20" t="n">
-        <v>2418.076126349175</v>
+        <v>2418.076126349176</v>
       </c>
       <c r="U20" t="n">
-        <v>2335.581075671078</v>
+        <v>2335.581075671079</v>
       </c>
       <c r="V20" t="n">
         <v>2170.992087174929</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>929.0104300374838</v>
+        <v>845.5505760717306</v>
       </c>
       <c r="C21" t="n">
-        <v>767.3067572784386</v>
+        <v>683.8469033126853</v>
       </c>
       <c r="D21" t="n">
-        <v>628.4681202686506</v>
+        <v>545.0082663028974</v>
       </c>
       <c r="E21" t="n">
-        <v>481.4401103255219</v>
+        <v>397.9802563597686</v>
       </c>
       <c r="F21" t="n">
-        <v>346.7463122753962</v>
+        <v>263.286458309643</v>
       </c>
       <c r="G21" t="n">
         <v>218.0178122986808</v>
@@ -5829,22 +5829,22 @@
         <v>49.69766953543986</v>
       </c>
       <c r="J21" t="n">
-        <v>109.951816068546</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4423686287347</v>
+        <v>270.6951321230865</v>
       </c>
       <c r="L21" t="n">
-        <v>705.2642137988503</v>
+        <v>636.5169772932021</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.297567309077</v>
+        <v>1121.550330803429</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.563213432199</v>
+        <v>1632.815976926551</v>
       </c>
       <c r="O21" t="n">
-        <v>2093.76316421635</v>
+        <v>2025.015927710701</v>
       </c>
       <c r="P21" t="n">
         <v>2327.111846986399</v>
@@ -5865,16 +5865,16 @@
         <v>1865.119824643974</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.184056058061</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.868187291371</v>
+        <v>1395.408333325618</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.951199169166</v>
+        <v>1197.491345203413</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.429872818745</v>
+        <v>1004.970018852992</v>
       </c>
     </row>
     <row r="22">
@@ -5890,16 +5890,16 @@
         <v>49.69766953543986</v>
       </c>
       <c r="D22" t="n">
-        <v>56.32979223867564</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="E22" t="n">
-        <v>56.32979223867564</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="F22" t="n">
-        <v>56.32979223867564</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="G22" t="n">
-        <v>56.32979223867564</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="H22" t="n">
         <v>56.32979223867564</v>
@@ -5990,25 +5990,25 @@
         <v>121.6962138082455</v>
       </c>
       <c r="K23" t="n">
-        <v>530.7963047773397</v>
+        <v>361.8365858530283</v>
       </c>
       <c r="L23" t="n">
-        <v>878.6816778622861</v>
+        <v>878.6816778622859</v>
       </c>
       <c r="M23" t="n">
-        <v>1440.880563039686</v>
+        <v>1271.920844115374</v>
       </c>
       <c r="N23" t="n">
-        <v>1819.211921727401</v>
+        <v>1650.25220280309</v>
       </c>
       <c r="O23" t="n">
-        <v>2124.216506200235</v>
+        <v>1955.256787275924</v>
       </c>
       <c r="P23" t="n">
-        <v>2352.373402656288</v>
+        <v>2183.413683731977</v>
       </c>
       <c r="Q23" t="n">
-        <v>2446.805656342825</v>
+        <v>2404.758342450396</v>
       </c>
       <c r="R23" t="n">
         <v>2484.883476771993</v>
@@ -6023,13 +6023,13 @@
         <v>2335.581075671079</v>
       </c>
       <c r="V23" t="n">
-        <v>2170.99208717493</v>
+        <v>2170.992087174929</v>
       </c>
       <c r="W23" t="n">
         <v>1980.847442640439</v>
       </c>
       <c r="X23" t="n">
-        <v>1771.207587769842</v>
+        <v>1771.207587769841</v>
       </c>
       <c r="Y23" t="n">
         <v>1550.056017953588</v>
@@ -6078,19 +6078,19 @@
         <v>1190.297567309077</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.563213432199</v>
+        <v>1632.815976926551</v>
       </c>
       <c r="O24" t="n">
-        <v>2093.76316421635</v>
+        <v>2025.015927710702</v>
       </c>
       <c r="P24" t="n">
-        <v>2395.859083492047</v>
+        <v>2327.111846986399</v>
       </c>
       <c r="Q24" t="n">
         <v>2484.883476771993</v>
       </c>
       <c r="R24" t="n">
-        <v>2425.099207866939</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="S24" t="n">
         <v>2355.759574845432</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1645.261565143645</v>
+        <v>1686.001422744416</v>
       </c>
       <c r="C26" t="n">
-        <v>1377.903731232219</v>
+        <v>1418.64358883299</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.636822851418</v>
+        <v>1160.39554881598</v>
       </c>
       <c r="E26" t="n">
-        <v>938.427027713291</v>
+        <v>880.185753677853</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8517617792277</v>
+        <v>580.6104877437899</v>
       </c>
       <c r="G26" t="n">
-        <v>337.323699989182</v>
+        <v>279.0824259537445</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0783503422577</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I26" t="n">
         <v>60.83707630682017</v>
@@ -6227,19 +6227,19 @@
         <v>245.1314844327525</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306623</v>
+        <v>597.5677203306619</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.28398737495</v>
+        <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
@@ -6251,25 +6251,25 @@
         <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727128</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="T26" t="n">
-        <v>2859.417743213906</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="U26" t="n">
-        <v>2719.108331683667</v>
+        <v>2982.25153863273</v>
       </c>
       <c r="V26" t="n">
-        <v>2719.108331683667</v>
+        <v>2759.848189284437</v>
       </c>
       <c r="W26" t="n">
-        <v>2471.149326297034</v>
+        <v>2511.889183897805</v>
       </c>
       <c r="X26" t="n">
-        <v>2203.695110574294</v>
+        <v>2244.434968175065</v>
       </c>
       <c r="Y26" t="n">
-        <v>1924.729179905898</v>
+        <v>1965.469037506669</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700611</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901135</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075607</v>
+        <v>303.4385284075602</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910899</v>
+        <v>264.9425599910894</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081751</v>
+        <v>227.5094705081746</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897182</v>
       </c>
       <c r="G28" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133347</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837522</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219777</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197473</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731337</v>
+        <v>473.073835473133</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538612</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565882</v>
       </c>
       <c r="O28" t="n">
         <v>1144.840921405405</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986669</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586276</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956422</v>
+        <v>1359.684827956421</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115876</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.947961687321</v>
+        <v>1141.94796168732</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321874</v>
+        <v>969.3336469321865</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463764</v>
+        <v>823.1742672463756</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195419</v>
+        <v>651.5937905195411</v>
       </c>
       <c r="X28" t="n">
-        <v>534.917251170684</v>
+        <v>534.9172511706834</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187275</v>
+        <v>427.4580171187268</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1464.032901641727</v>
+        <v>1690.312431518093</v>
       </c>
       <c r="C29" t="n">
-        <v>1196.675067730301</v>
+        <v>1422.954597606667</v>
       </c>
       <c r="D29" t="n">
-        <v>938.4270277132906</v>
+        <v>1164.706557589657</v>
       </c>
       <c r="E29" t="n">
-        <v>938.4270277132906</v>
+        <v>938.4270277132907</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792273</v>
+        <v>638.8517617792274</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3236999891817</v>
+        <v>337.3236999891819</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422579</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682017</v>
+        <v>60.83707630682011</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327525</v>
+        <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
         <v>597.5677203306618</v>
@@ -6473,10 +6473,10 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241753</v>
       </c>
       <c r="P29" t="n">
         <v>2811.664418550932</v>
@@ -6488,7 +6488,7 @@
         <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T29" t="n">
         <v>2859.417743213906</v>
@@ -6497,16 +6497,16 @@
         <v>2719.108331683667</v>
       </c>
       <c r="V29" t="n">
-        <v>2537.879668181748</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.920662795116</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X29" t="n">
-        <v>2022.466447072375</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="Y29" t="n">
-        <v>1743.50051640398</v>
+        <v>1969.780046280346</v>
       </c>
     </row>
     <row r="30">
@@ -6564,13 +6564,13 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2519.698468604072</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.898981616812</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U30" t="n">
         <v>1959.719085381108</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901137</v>
+        <v>358.4785731901138</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075608</v>
+        <v>303.4385284075606</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910899</v>
+        <v>264.9425599910898</v>
       </c>
       <c r="E31" t="n">
-        <v>227.5094705081751</v>
+        <v>227.509470508175</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897187</v>
+        <v>189.6047402897185</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2609164133351</v>
+        <v>135.2609164133349</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837528</v>
+        <v>90.46419594837516</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219772</v>
+        <v>114.2708406219776</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197477</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731336</v>
+        <v>473.0738354731339</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538618</v>
+        <v>703.3632054538623</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565889</v>
+        <v>934.0814110565893</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P31" t="n">
         <v>1320.10526898667</v>
@@ -6643,25 +6643,25 @@
         <v>1394.630684586277</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.684827956422</v>
+        <v>1359.684827956421</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.550990115876</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.947961687321</v>
+        <v>1141.94796168732</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321869</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463762</v>
+        <v>823.174267246376</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195415</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706838</v>
+        <v>534.9172511706836</v>
       </c>
       <c r="Y31" t="n">
         <v>427.4580171187272</v>
@@ -6683,58 +6683,58 @@
         <v>1075.750195008025</v>
       </c>
       <c r="E32" t="n">
-        <v>823.7051277364781</v>
+        <v>823.7051277364785</v>
       </c>
       <c r="F32" t="n">
-        <v>552.2945896689947</v>
+        <v>552.2945896689951</v>
       </c>
       <c r="G32" t="n">
-        <v>278.9312557455289</v>
+        <v>278.9312557455291</v>
       </c>
       <c r="H32" t="n">
-        <v>88.85063396518412</v>
+        <v>88.85063396518419</v>
       </c>
       <c r="I32" t="n">
-        <v>58.77408779632637</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="J32" t="n">
         <v>270.6727457042936</v>
       </c>
       <c r="K32" t="n">
-        <v>650.7132313842378</v>
+        <v>510.8131177490764</v>
       </c>
       <c r="L32" t="n">
-        <v>1138.498718104346</v>
+        <v>858.6984908340226</v>
       </c>
       <c r="M32" t="n">
-        <v>1531.737884357434</v>
+        <v>1322.113312940086</v>
       </c>
       <c r="N32" t="n">
-        <v>1910.069243045149</v>
+        <v>1840.344785262963</v>
       </c>
       <c r="O32" t="n">
-        <v>2285.249483370957</v>
+        <v>2285.249483370959</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.306493462172</v>
+        <v>2653.306493462173</v>
       </c>
       <c r="Q32" t="n">
-        <v>2887.638860783871</v>
+        <v>2887.638860783872</v>
       </c>
       <c r="R32" t="n">
-        <v>2938.704389816318</v>
+        <v>2938.704389816319</v>
       </c>
       <c r="S32" t="n">
-        <v>2894.216067069019</v>
+        <v>2894.21606706902</v>
       </c>
       <c r="T32" t="n">
-        <v>2812.597773422376</v>
+        <v>2812.597773422377</v>
       </c>
       <c r="U32" t="n">
-        <v>2700.453089758716</v>
+        <v>2700.453089758717</v>
       </c>
       <c r="V32" t="n">
-        <v>2506.214468277004</v>
+        <v>2506.214468277005</v>
       </c>
       <c r="W32" t="n">
         <v>2286.420190756951</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>923.3742308382659</v>
+        <v>938.0868482983705</v>
       </c>
       <c r="C33" t="n">
-        <v>761.6705580792207</v>
+        <v>776.3831755393252</v>
       </c>
       <c r="D33" t="n">
-        <v>622.8319210694327</v>
+        <v>637.5445385295372</v>
       </c>
       <c r="E33" t="n">
-        <v>475.8039111263039</v>
+        <v>490.5165285864084</v>
       </c>
       <c r="F33" t="n">
-        <v>341.1101130761783</v>
+        <v>355.8227305362827</v>
       </c>
       <c r="G33" t="n">
-        <v>212.3816130994629</v>
+        <v>227.0942305595673</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4437556461609</v>
+        <v>127.1563731062654</v>
       </c>
       <c r="I33" t="n">
-        <v>58.77408779632637</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="J33" t="n">
         <v>119.0282343294325</v>
@@ -6810,19 +6810,19 @@
         <v>2161.438271812199</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.943479410509</v>
+        <v>1957.656096870614</v>
       </c>
       <c r="V33" t="n">
-        <v>1714.547856858843</v>
+        <v>1729.260474318948</v>
       </c>
       <c r="W33" t="n">
-        <v>1473.231988092153</v>
+        <v>1487.944605552258</v>
       </c>
       <c r="X33" t="n">
-        <v>1275.314999969948</v>
+        <v>1290.027617430052</v>
       </c>
       <c r="Y33" t="n">
-        <v>1082.793673619527</v>
+        <v>1097.506291079631</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.2624896135613</v>
+        <v>159.2624896135617</v>
       </c>
       <c r="C34" t="n">
-        <v>132.3871726975878</v>
+        <v>132.3871726975882</v>
       </c>
       <c r="D34" t="n">
-        <v>122.0559321476968</v>
+        <v>122.0559321476971</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7875705313619</v>
+        <v>112.7875705313621</v>
       </c>
       <c r="F34" t="n">
-        <v>103.0475681794853</v>
+        <v>103.0475681794854</v>
       </c>
       <c r="G34" t="n">
-        <v>76.86847216968152</v>
+        <v>76.86847216968164</v>
       </c>
       <c r="H34" t="n">
-        <v>60.23647957130159</v>
+        <v>60.23647957130166</v>
       </c>
       <c r="I34" t="n">
-        <v>58.77408779632637</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="J34" t="n">
         <v>139.8121018935186</v>
@@ -6865,43 +6865,43 @@
         <v>274.0233690384215</v>
       </c>
       <c r="M34" t="n">
-        <v>392.0168751660233</v>
+        <v>531.9169888011847</v>
       </c>
       <c r="N34" t="n">
-        <v>650.3393305507852</v>
+        <v>678.3702546050371</v>
       </c>
       <c r="O34" t="n">
-        <v>878.963566482368</v>
+        <v>776.8339011007267</v>
       </c>
       <c r="P34" t="n">
-        <v>941.9320502105058</v>
+        <v>839.8023848288645</v>
       </c>
       <c r="Q34" t="n">
-        <v>941.9320502105058</v>
+        <v>941.9320502105066</v>
       </c>
       <c r="R34" t="n">
-        <v>935.1509214472303</v>
+        <v>935.1509214472311</v>
       </c>
       <c r="S34" t="n">
-        <v>864.1818114732641</v>
+        <v>864.1818114732648</v>
       </c>
       <c r="T34" t="n">
-        <v>773.7435109112893</v>
+        <v>773.7435109112898</v>
       </c>
       <c r="U34" t="n">
-        <v>629.2939240227354</v>
+        <v>629.293924022736</v>
       </c>
       <c r="V34" t="n">
-        <v>511.2992722035042</v>
+        <v>511.2992722035048</v>
       </c>
       <c r="W34" t="n">
-        <v>367.8835233432495</v>
+        <v>367.8835233432501</v>
       </c>
       <c r="X34" t="n">
-        <v>279.3717118609715</v>
+        <v>279.371711860972</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.0772056755949</v>
+        <v>200.0772056755953</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927301</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>751.3007196776764</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1144.539885930764</v>
+        <v>1473.47543491283</v>
       </c>
       <c r="N35" t="n">
-        <v>1522.87124461848</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2156.811378073379</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529433</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2479.40052821597</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
         <v>2391.981869702243</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749092</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>79.39795846875474</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>113.0021462133981</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>213.6092256136577</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>331.6027317412594</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>450.0250734908598</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>548.4887199865494</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
         <v>629.3786802696717</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P38" t="n">
-        <v>2344.792518616376</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7327,10 +7327,10 @@
         <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>74.23504503930332</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K40" t="n">
         <v>130.9236227683826</v>
@@ -7409,28 +7409,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>238.9081644362655</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0485364810483</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L41" t="n">
-        <v>826.9339095659946</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.173075819082</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.97220899783</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.976793470664</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P41" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
         <v>219.4208171253267</v>
@@ -7488,13 +7488,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K42" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>98.03426197503406</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>198.6413413752936</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>316.6348475028953</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>435.0571892524957</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>533.5208357481854</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>596.4893194763232</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.173075819082</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N44" t="n">
-        <v>1762.97220899783</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O44" t="n">
-        <v>2067.976793470664</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q44" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7682,16 +7682,16 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749095</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228435</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>82.50168994950192</v>
       </c>
       <c r="J46" t="n">
-        <v>97.31943502373917</v>
+        <v>82.50168994950192</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683826</v>
+        <v>116.1058776941453</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686421</v>
+        <v>216.7129570944048</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962438</v>
+        <v>334.7064632220066</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458442</v>
+        <v>453.1288049716069</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415339</v>
+        <v>551.5924514672967</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696717</v>
+        <v>614.5609351954345</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>614.5609351954345</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007349</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916211</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433853</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>392.0073265027264</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>411.6169233222612</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>535.4989838364128</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>606.2309859515262</v>
+        <v>231.1659937051649</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8216,7 +8216,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>319.2815242069631</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8228,13 +8228,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>488.3188383409029</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,16 +8295,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>523.023003854188</v>
+        <v>501.3660976161409</v>
       </c>
       <c r="N6" t="n">
-        <v>606.2309859515262</v>
+        <v>606.2309859515265</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,16 +8529,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>525.6967347807335</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,7 +8775,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>535.9749298389917</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.52159529646</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9018,13 +9018,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>442.5793620237397</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.52159529646</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>274.3631550803439</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.6588210205949</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>335.2259293562087</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,7 +9495,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>344.5599461959095</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>553.7034336106115</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>203.6588210205953</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11382,7 +11382,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.416582875</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.8129305257624</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>259.7942345702904</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>111.5612715448559</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>121.6519978357289</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>249.6080902862167</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>268.9083485189633</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>280.3049463151621</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>42.2396836857566</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.47742821376062</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7.713801930704147</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>98.43091383022221</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.8129305257623</v>
       </c>
       <c r="D14" t="n">
-        <v>259.7942345702904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>261.7697550774464</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>220.1915711039055</v>
       </c>
       <c r="I14" t="n">
-        <v>61.78753624853366</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>112.8138662515406</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>143.0349923683876</v>
       </c>
       <c r="V14" t="n">
-        <v>224.3079908082598</v>
+        <v>224.3079908082597</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>64.12589814975546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.18743354153602</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.9290605910702</v>
+        <v>57.24348028868479</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>40.50185323915082</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.688691965331182e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>97.99132031984674</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>79.90006347374084</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>53.39096260914266</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24737,13 +24737,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>40.76293898790971</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807397.0996745661</v>
+        <v>807397.0996745662</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894373.9263720786</v>
+        <v>894373.9263720788</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>865322.1944888688</v>
+        <v>865322.194488869</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894447.534524297</v>
+        <v>894447.5345242968</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>460574.4362965089</v>
+        <v>460574.436296509</v>
       </c>
       <c r="C2" t="n">
         <v>460574.4362965091</v>
       </c>
       <c r="D2" t="n">
-        <v>460574.4362965089</v>
+        <v>460574.4362965088</v>
       </c>
       <c r="E2" t="n">
-        <v>415195.2223673717</v>
+        <v>415195.2223673718</v>
       </c>
       <c r="F2" t="n">
-        <v>415195.2223673718</v>
+        <v>415195.2223673719</v>
       </c>
       <c r="G2" t="n">
         <v>460574.4362965091</v>
       </c>
       <c r="H2" t="n">
-        <v>460574.4362965091</v>
+        <v>460574.4362965092</v>
       </c>
       <c r="I2" t="n">
-        <v>460574.4362965091</v>
+        <v>460574.4362965092</v>
       </c>
       <c r="J2" t="n">
+        <v>445378.6067128074</v>
+      </c>
+      <c r="K2" t="n">
         <v>445378.6067128071</v>
-      </c>
-      <c r="K2" t="n">
-        <v>445378.6067128078</v>
       </c>
       <c r="L2" t="n">
         <v>460574.4362965082</v>
       </c>
       <c r="M2" t="n">
+        <v>460574.436296509</v>
+      </c>
+      <c r="N2" t="n">
         <v>460574.4362965089</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>460574.4362965091</v>
       </c>
-      <c r="O2" t="n">
-        <v>460574.436296509</v>
-      </c>
       <c r="P2" t="n">
-        <v>460574.4362965091</v>
+        <v>460574.4362965089</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167399.2484849997</v>
+        <v>167399.2484849998</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8010.3265126836</v>
+        <v>8010.326512683529</v>
       </c>
       <c r="E3" t="n">
         <v>116080.0978984154</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>49091.91375765717</v>
+        <v>49091.91375765715</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>208779.5291838293</v>
+        <v>208779.5291838294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>71398.37822798842</v>
+        <v>71398.37822798833</v>
       </c>
       <c r="M3" t="n">
-        <v>19852.65523706732</v>
+        <v>19852.65523706737</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41652.21864890981</v>
+        <v>41652.21864890983</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203617.9403432548</v>
+        <v>203617.9403432547</v>
       </c>
       <c r="C4" t="n">
-        <v>203617.9403432548</v>
+        <v>203617.9403432547</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140584</v>
+        <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
         <v>145858.0124406253</v>
       </c>
       <c r="F4" t="n">
-        <v>145858.0124406253</v>
+        <v>145858.0124406254</v>
       </c>
       <c r="G4" t="n">
         <v>188788.6282682266</v>
@@ -26442,7 +26442,7 @@
         <v>173576.2621260966</v>
       </c>
       <c r="K4" t="n">
-        <v>173576.2621260966</v>
+        <v>173576.2621260967</v>
       </c>
       <c r="L4" t="n">
         <v>187786.7484954251</v>
@@ -26451,13 +26451,13 @@
         <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="O4" t="n">
         <v>187302.9854962236</v>
       </c>
       <c r="P4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63998.16336893612</v>
+        <v>63998.16336893613</v>
       </c>
       <c r="C5" t="n">
-        <v>63998.16336893612</v>
+        <v>63998.16336893613</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26494,13 +26494,13 @@
         <v>55772.13857729292</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729293</v>
       </c>
       <c r="L5" t="n">
-        <v>56548.37001126298</v>
+        <v>56548.37001126299</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264636</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25559.08409931835</v>
+        <v>25559.0840993184</v>
       </c>
       <c r="C6" t="n">
         <v>192958.3325843182</v>
@@ -26528,10 +26528,10 @@
         <v>190018.6419328555</v>
       </c>
       <c r="E6" t="n">
-        <v>106298.0161719487</v>
+        <v>106108.9361139108</v>
       </c>
       <c r="F6" t="n">
-        <v>222378.1140703642</v>
+        <v>222189.0340123262</v>
       </c>
       <c r="G6" t="n">
         <v>170575.9132921275</v>
@@ -26543,25 +26543,25 @@
         <v>219667.8270497847</v>
       </c>
       <c r="J6" t="n">
-        <v>7250.676825588293</v>
+        <v>7187.360868989711</v>
       </c>
       <c r="K6" t="n">
-        <v>216030.2060094182</v>
+        <v>215966.8900528187</v>
       </c>
       <c r="L6" t="n">
-        <v>144840.9395618317</v>
+        <v>144840.9395618318</v>
       </c>
       <c r="M6" t="n">
-        <v>200615.9786705717</v>
+        <v>200615.9786705716</v>
       </c>
       <c r="N6" t="n">
-        <v>220468.6339076392</v>
+        <v>220468.633907639</v>
       </c>
       <c r="O6" t="n">
-        <v>178816.4152587292</v>
+        <v>178816.4152587293</v>
       </c>
       <c r="P6" t="n">
-        <v>220468.6339076392</v>
+        <v>220468.6339076391</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>170.6663827518298</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="C4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26817,10 +26817,10 @@
         <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>734.6760974540796</v>
+        <v>734.6760974540798</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260716</v>
@@ -26829,7 +26829,7 @@
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>109.3014905547583</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>61.36489219707147</v>
+        <v>61.36489219707144</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.06527331113726</v>
+        <v>52.06527331113729</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>89.24797278498552</v>
+        <v>89.24797278498541</v>
       </c>
       <c r="M2" t="n">
-        <v>24.81581904633416</v>
+        <v>24.81581904633421</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113726</v>
+        <v>52.06527331113729</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.78735638117246</v>
+        <v>25.78735638117223</v>
       </c>
       <c r="E4" t="n">
         <v>95.91766792800786</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>109.3014905547583</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>61.36489219707147</v>
+        <v>61.36489219707144</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113726</v>
+        <v>52.06527331113729</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.78735638117246</v>
+        <v>25.78735638117223</v>
       </c>
       <c r="M4" t="n">
         <v>95.91766792800786</v>
@@ -27379,25 +27379,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>350.5356831022357</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>15.42647250941707</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.99722547792868</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.11631041272091</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>93.47784511364529</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>173.5818798313932</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.9630519425857</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27625,13 +27625,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>67.31784928142162</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>106.1297349766301</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>112.2485754317727</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>122.1781806691836</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27831,13 +27831,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>128.249047910203</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>215.0218900525239</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>173.005695245665</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.502700801974747</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>42.24092077382167</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>94.16710381075333</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28062,13 +28062,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3884301890142865</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28114,13 +28114,13 @@
         <v>109.3014905547583</v>
       </c>
       <c r="K11" t="n">
-        <v>109.3014905547583</v>
+        <v>32.32115180167798</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>51.89073871733137</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>109.3014905547583</v>
@@ -28132,10 +28132,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>109.3014905547583</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>109.3014905547583</v>
       </c>
       <c r="S11" t="n">
         <v>109.3014905547583</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>82.62525542609576</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>82.62525542609571</v>
       </c>
     </row>
     <row r="13">
@@ -28348,13 +28348,13 @@
         <v>109.3014905547583</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.3014905547583</v>
       </c>
       <c r="K14" t="n">
-        <v>109.3014905547583</v>
+        <v>32.3211518016781</v>
       </c>
       <c r="L14" t="n">
-        <v>51.89073871733149</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>109.3014905547583</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>109.3014905547583</v>
       </c>
       <c r="S14" t="n">
         <v>109.3014905547583</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>82.62525542609575</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>82.62525542609558</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28585,7 +28585,7 @@
         <v>170.6663827518298</v>
       </c>
       <c r="J17" t="n">
-        <v>38.46244487794709</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28594,13 +28594,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>170.6663827518298</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>128.1943485170523</v>
       </c>
       <c r="P17" t="n">
         <v>170.6663827518298</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>170.6663827518298</v>
       </c>
       <c r="S17" t="n">
         <v>170.6663827518298</v>
@@ -28655,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>82.62525542609575</v>
       </c>
       <c r="H18" t="n">
-        <v>82.62525542609575</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28722,16 +28722,16 @@
         <v>170.6663827518298</v>
       </c>
       <c r="C19" t="n">
-        <v>170.6663827518298</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>157.1880379379466</v>
       </c>
       <c r="F19" t="n">
-        <v>154.9083893572397</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>167.2305511458285</v>
@@ -28822,7 +28822,7 @@
         <v>170.6663827518298</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>128.1943485170524</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28834,16 +28834,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>170.6663827518298</v>
-      </c>
-      <c r="O20" t="n">
-        <v>128.1943485170523</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.6663827518298</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>82.62525542609575</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>82.62525542609558</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>158.2402880821672</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28974,7 +28974,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>164.4780326101712</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -29062,28 +29062,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>170.6663827518298</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>128.1943485170525</v>
+      </c>
+      <c r="R23" t="n">
         <v>170.6663827518298</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>128.1943485170524</v>
       </c>
       <c r="S23" t="n">
         <v>170.6663827518298</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>82.62525542609532</v>
+        <v>23.43882921009143</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082083</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P28" t="n">
-        <v>113.430165508209</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082085</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="30">
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="C32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="D32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="E32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="F32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="G32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="H32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="I32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="J32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="K32" t="n">
-        <v>141.3132460961228</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>141.3132460961228</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>70.88450086159139</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="O32" t="n">
-        <v>70.88450086159014</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="P32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="R32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="S32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="T32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="U32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="V32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="W32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="X32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550339</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="C34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="D34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="E34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="F34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="G34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="J34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="N34" t="n">
-        <v>141.3132460961228</v>
+        <v>28.31406470126463</v>
       </c>
       <c r="O34" t="n">
-        <v>131.4753428645385</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="R34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="S34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="T34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="U34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="V34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="W34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="X34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.3132460961228</v>
+        <v>141.3132460961227</v>
       </c>
     </row>
     <row r="35">
@@ -30010,25 +30010,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>40.58157162934944</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>40.58157162935015</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550328</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30159,13 +30159,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>79.68963508529257</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.68561682995293</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40.58157162934918</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M38" t="n">
+      <c r="R38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>116.9787331327008</v>
-      </c>
-      <c r="R38" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30399,13 +30399,13 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K40" t="n">
-        <v>23.3175656408443</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30481,31 +30481,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9787331327011</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>40.58157162934924</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="R41" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30621,7 +30621,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>70.24969386085871</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30721,28 +30721,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30870,13 +30870,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J46" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>162.9939828386722</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>213.1843225286797</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>223.7401142711047</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>420.0150812747729</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>499.5158448838179</v>
+        <v>124.4508526374565</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>140.4585202329164</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34948,13 +34948,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>301.3640415607824</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>407.5391012925481</v>
+        <v>385.882195054501</v>
       </c>
       <c r="N6" t="n">
-        <v>499.5158448838179</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>410.2128322190937</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>182.0272928505216</v>
       </c>
       <c r="K11" t="n">
-        <v>351.8675229232257</v>
+        <v>274.8871841701454</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>449.1020177608546</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
         <v>491.4543781181075</v>
@@ -35428,10 +35428,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>204.6876053896441</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.5695869156531</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35495,7 +35495,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>489.93268031336</v>
+        <v>420.4910272773518</v>
       </c>
       <c r="N12" t="n">
         <v>516.4299455789112</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.7864038515675</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>182.0272928505216</v>
       </c>
       <c r="K14" t="n">
-        <v>351.8675229232257</v>
+        <v>274.8871841701455</v>
       </c>
       <c r="L14" t="n">
-        <v>403.2901054698024</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
         <v>506.5127695982815</v>
       </c>
       <c r="N14" t="n">
-        <v>491.4543781181075</v>
+        <v>491.4543781181076</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
@@ -35668,7 +35668,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>19.56958691565313</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35738,13 +35738,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>396.1615664486372</v>
+        <v>326.7199134126286</v>
       </c>
       <c r="P15" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.7864038515675</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.84482435478929</v>
+        <v>49.84482435478932</v>
       </c>
       <c r="K16" t="n">
         <v>143.2451145392466</v>
       </c>
       <c r="L16" t="n">
-        <v>210.9248030802729</v>
+        <v>210.924803080273</v>
       </c>
       <c r="M16" t="n">
         <v>228.4868502796085</v>
@@ -35823,7 +35823,7 @@
         <v>172.9060195730793</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.14952262191044</v>
+        <v>71.14952262191046</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>111.1882471737104</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,13 +35890,13 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>567.8776617953529</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>436.2797873785007</v>
       </c>
       <c r="P17" t="n">
         <v>401.1278943236007</v>
@@ -35905,7 +35905,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>80.93447911272457</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496855</v>
+        <v>162.3669859136772</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.92362957570236</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36018,16 +36018,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.746572908893256</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>6.699113841652303</v>
       </c>
       <c r="F19" t="n">
-        <v>3.952540932759045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>200.9201508128157</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36130,16 +36130,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>552.819270315179</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>436.2797873785007</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>266.0524975867156</v>
       </c>
       <c r="R20" t="n">
         <v>80.93447911272457</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>223.229760189542</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36215,7 +36215,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7057401717662</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36258,19 +36258,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.699113841652303</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>413.2324151202972</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>522.0657495043007</v>
       </c>
       <c r="M23" t="n">
-        <v>567.8776617953529</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
@@ -36376,10 +36376,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>223.5804633519383</v>
       </c>
       <c r="R23" t="n">
-        <v>38.46244487794726</v>
+        <v>80.93447911272457</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>446.9882925429032</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.92362957570283</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766761</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36604,7 +36604,7 @@
         <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
-        <v>495.583053071558</v>
+        <v>495.5830530715576</v>
       </c>
       <c r="O26" t="n">
         <v>421.5156043696572</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910358</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K28" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L28" t="n">
         <v>215.0534780337234</v>
@@ -36768,10 +36768,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
-        <v>177.03469452653</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.155967803972</v>
+        <v>186.1559678039721</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766761</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
       </c>
       <c r="M29" t="n">
-        <v>510.6414445517319</v>
+        <v>510.641444551732</v>
       </c>
       <c r="N29" t="n">
         <v>495.583053071558</v>
@@ -36847,13 +36847,13 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799794</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910359</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823977</v>
       </c>
       <c r="K31" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L31" t="n">
         <v>215.0534780337234</v>
@@ -37005,10 +37005,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P31" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536092</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.0390483918861</v>
+        <v>214.039048391886</v>
       </c>
       <c r="K32" t="n">
-        <v>383.8792784645902</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>492.7126128485937</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>468.0957799051146</v>
       </c>
       <c r="N32" t="n">
-        <v>382.1528875633492</v>
+        <v>523.466133659472</v>
       </c>
       <c r="O32" t="n">
-        <v>378.9699397230386</v>
+        <v>449.3986849575712</v>
       </c>
       <c r="P32" t="n">
         <v>371.7747576678937</v>
@@ -37090,7 +37090,7 @@
         <v>236.6993609310086</v>
       </c>
       <c r="R32" t="n">
-        <v>51.5813424570176</v>
+        <v>51.58134245701754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.85657989615379</v>
+        <v>81.85657989615373</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
@@ -37233,19 +37233,19 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>260.498605820973</v>
       </c>
       <c r="N34" t="n">
-        <v>260.9317731159211</v>
+        <v>147.932591721063</v>
       </c>
       <c r="O34" t="n">
-        <v>230.9335716480634</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.1612781632749</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978169</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728733</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37455,13 +37455,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>20.23296888532357</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37479,13 +37479,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>110.2901458482739</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37558,13 +37558,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3648479675866</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="K40" t="n">
-        <v>57.2611896253326</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
         <v>101.6233125255146</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>189.7045354284644</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N41" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
@@ -37798,10 +37798,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.09772592801087</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
-        <v>514.1900121762243</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>489.9326803133602</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
         <v>516.4299455789112</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.350146373938003</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910866</v>
       </c>
       <c r="J46" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>14.96741926690663</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
